--- a/US/data/BOC/FTD/FTDE/UGDSCSB_A_historical.xlsx
+++ b/US/data/BOC/FTD/FTDE/UGDSCSB_A_historical.xlsx
@@ -527,10 +527,10 @@
         <v>-861515</v>
       </c>
       <c r="W2" t="n">
-        <v>-922026</v>
+        <v>-913885</v>
       </c>
       <c r="X2" t="n">
-        <v>-1091384</v>
+        <v>-1090296</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
@@ -616,10 +616,10 @@
         <v>-850917</v>
       </c>
       <c r="W3" t="n">
-        <v>-911056</v>
+        <v>-902318</v>
       </c>
       <c r="X3" t="n">
-        <v>-1078566</v>
+        <v>-1076810</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
@@ -705,10 +705,10 @@
         <v>-10598</v>
       </c>
       <c r="W4" t="n">
-        <v>-10970</v>
+        <v>-11567</v>
       </c>
       <c r="X4" t="n">
-        <v>-12818</v>
+        <v>-13486</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
@@ -794,10 +794,10 @@
         <v>1652072</v>
       </c>
       <c r="W5" t="n">
-        <v>1428798</v>
+        <v>1432218</v>
       </c>
       <c r="X5" t="n">
-        <v>1761709</v>
+        <v>1761364</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
@@ -883,10 +883,10 @@
         <v>1642820</v>
       </c>
       <c r="W6" t="n">
-        <v>1424935</v>
+        <v>1428518</v>
       </c>
       <c r="X6" t="n">
-        <v>1754504</v>
+        <v>1754300</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
         <v>9252</v>
       </c>
       <c r="W7" t="n">
-        <v>3863</v>
+        <v>3700</v>
       </c>
       <c r="X7" t="n">
-        <v>7205</v>
+        <v>7064</v>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
@@ -1061,10 +1061,10 @@
         <v>2513587</v>
       </c>
       <c r="W8" t="n">
-        <v>2350825</v>
+        <v>2346103</v>
       </c>
       <c r="X8" t="n">
-        <v>2853093</v>
+        <v>2851660</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         <v>2493738</v>
       </c>
       <c r="W9" t="n">
-        <v>2335991</v>
+        <v>2330836</v>
       </c>
       <c r="X9" t="n">
-        <v>2833070</v>
+        <v>2831111</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         <v>19850</v>
       </c>
       <c r="W10" t="n">
-        <v>14834</v>
+        <v>15266</v>
       </c>
       <c r="X10" t="n">
-        <v>20023</v>
+        <v>20550</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
